--- a/Lora/LoraWanGateways.xlsx
+++ b/Lora/LoraWanGateways.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\GIT\Miscellaneous\Lora\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198B798D-78CD-412A-B701-E83695F2566C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEA8C0AE-A8CE-483B-A95E-F88F7B516435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{52B7D40E-4B07-47D8-9E33-BB87AA3497D5}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>RAK</t>
   </si>
   <si>
-    <t>https://www.es-ebyte.com/products/E90-DTU(400SL22-ETH)/7</t>
-  </si>
-  <si>
     <t>E90-DTU(400SL22-ETH)_V2.0</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>Para frecuencias de 850,125 a 930,125hz,1MHz entre canales.La version L30 emite a 30 dbi</t>
+  </si>
+  <si>
+    <t>https://www.es-ebyte.com/products/E90-DTU(400SL22-ETH)-V2</t>
   </si>
 </sst>
 </file>
@@ -464,8 +464,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A298724C-7FC5-493F-AE96-ACA2071EAE35}">
   <dimension ref="C3:G7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -487,7 +487,7 @@
         <v>2</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>3</v>
@@ -508,36 +508,36 @@
     </row>
     <row r="5" spans="3:7" ht="29" x14ac:dyDescent="0.35">
       <c r="C5" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="3:7" ht="29" x14ac:dyDescent="0.35">
       <c r="C6" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="3:7" ht="43.5" x14ac:dyDescent="0.35">
